--- a/outputs/Original_NST/Original_NST_losses.xlsx
+++ b/outputs/Original_NST/Original_NST_losses.xlsx
@@ -1366,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,6 +1484,91 @@
       </c>
       <c r="E6" t="n">
         <v>440708.71875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>762401.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>656655.0625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47550.1015625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1466606.875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B8" t="n">
+        <v>271642.46875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>399646.125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44434.84375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>715723.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" t="n">
+        <v>208060.234375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>297831.90625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46150.6640625</v>
+      </c>
+      <c r="E9" t="n">
+        <v>552042.8125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" t="n">
+        <v>174956.3125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>253517.71875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47052.15234375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>475526.1875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>165721.90625</v>
+      </c>
+      <c r="C11" t="n">
+        <v>227305.875</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47745.12109375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>440772.90625</v>
       </c>
     </row>
   </sheetData>
